--- a/outputs/POMPANO4.xlsx
+++ b/outputs/POMPANO4.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations
-Why: Abi is motivated to accomplish her tasks efficiently. Since she is looking into travel visa information for attending ICSE, the "Visas and Travel" link under the "Attending" section on the conference website would be an obvious step toward achieving her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Learning Style
-Why: The page is quite busy with many different links and sections. Since Abi has low confidence with unfamiliar computing tasks and prefers process-oriented learning, she might not be certain that clicking "Attending" will lead her to visa information. There is no explicit indication that the "Attending" section contains visa and travel information, which might make Abi hesitant to click on it.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Attending" section is not clearly marked as a clickable link or button, and there is no explicit instruction indicating that Abi should click on it to find visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident or know to click on "Attending" without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Learning Style, Computer Self-Efficacy, Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is making progress toward her goal of finding visa information. The presence of this specific link will reassure Abi and guide her to the relevant information she needs. This aligns with her preference for process-oriented learning and provides her with the confidence to proceed. The information is clear and easy to follow, supporting her comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option in the dropdown menu will confirm to Abi that she is making progress toward her goal of obtaining visa information for the conference. Given her comprehensive information processing style, this clear and direct path will be reassuring and helpful.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Learning Style
-Why: The dropdown menu clearly shows "Visas and Travel Authorizations" as an option under the "Attending" section. Abi is motivated to find visa information, and this option directly aligns with her goal. The label is explicit and clear, making it easy for Abi to understand that she should click on this link to proceed, which fits her preference for process-oriented learning.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly related to her goal, making it evident what she should do at this step.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations, Learning Style
-Why: The page Abi lands on provides detailed information about visa and travel authorizations, including specifics about arriving in Canada and obtaining a visa invitation letter. This aligns with Abi's comprehensive information processing style, as it offers all the relevant details she needs to make informed decisions. The clear and structured presentation of the information helps Abi confirm that she is on the right track and making progress toward her goal of obtaining visa information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about arriving in Canada, the Electronic Travel Authorization (ETA), and the Visa Invitation Letter. This page includes links to further details about entry requirements and the ETA overview, as well as specific instructions about obtaining a visa invitation letter. The comprehensive information provided will confirm to Abi that she is making progress toward her goal and will give her the necessary details to proceed with her visa application.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Learning Style
-Why: The page clearly lists "Visa Overview" as a link under the section "Arriving in Canada." Since Abi is motivated to find detailed visa information and prefers process-oriented learning, she will recognize that clicking on the "Visa Overview" link is the appropriate next step to obtain the comprehensive information she needs. The label is explicit and directly related to her goal, making it clear for Abi to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Visa Overview" link is clearly labeled and directly related to Abi's goal of obtaining visa information. Given her motivation to attend the conference and her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the appropriate next step to gather more detailed information about the visa requirements and process. The clear labeling and relevance to her goal will guide her to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Learning Style
-Why: The page Abi lands on is very text-heavy and contains a lot of detailed information, which might be overwhelming. Although she prefers comprehensive information, the sheer volume and lack of clear structure could make it difficult for her to quickly find the specific visa information she needs. Abi might not immediately feel confident that she is making progress toward her goal due to the dense and potentially confusing presentation of information. This can affect her ability to efficiently process the information and confirm that she is on the right track.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page Abi lands on after clicking "Visa Overview" is extremely long and text-heavy, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through the vast amount of information to find what she specifically needs. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the necessary information. The lack of clear, concise, and organized information can hinder her confidence in knowing she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO4.xlsx
+++ b/outputs/POMPANO4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to ensure she has the correct visa to travel. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information as a necessary step toward achieving her overall goal of attending the conference.</t>
+Why: Abi is motivated to attend the ICSE conference and needs to handle travel visa requirements as part of her preparation. The conference website is a logical place to look for visa information. Additionally, Abi's comprehensive information processing style means she would consider gathering all necessary details, including visa information, from the conference website. The "Visas and Travel" link under the "Attending" section is clearly visible, making it likely that Abi would think of this as a step toward achieving her overall goal.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Attending" link is part of a dropdown menu, and it is not immediately clear that clicking "Attending" will lead to visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not be sure that clicking "Attending" is the correct step to find visa information. She might need more explicit guidance or a clearer indication that this is the right action to take.</t>
+Why: Abi's computer self-efficacy is low, and she may not feel confident about what the "Attending" link will lead to without additional information. The page does not provide explicit guidance or context about what clicking "Attending" will do, which could make Abi hesitant to proceed. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided here, making it less likely she will know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. Given her motivation to attend the conference and her comprehensive information processing style, she will recognize that she is making progress toward her goal and will likely feel confident that she is on the right track.</t>
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option in the dropdown menu will confirm to Abi that she is making progress toward her goal. Additionally, the comprehensive list of options aligns with her information processing style, as it provides a clear and organized way to access the necessary information.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to achieve her subgoal. The label is explicit and directly related to her needs, making it clear what she should do next.</t>
+Why: Abi is motivated to find visa information, and the dropdown menu clearly lists "Visas and Travel Authorizations" as an option. This is a straightforward and logical step for her to take in order to achieve her subgoal. The clear labeling of the menu item aligns with her comprehensive information processing style, making it easy for her to understand that clicking on "Visas and Travel Authorizations" will likely lead her to the information she needs.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about arriving in Canada, including the Electronic Travel Authorization (ETA) requirements and links to further details. It also explains the process for obtaining a Visa Invitation Letter. This page contains comprehensive information that is directly relevant to her needs, so Abi will know she is making progress toward her goal and will likely feel confident that she has found the necessary information.</t>
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes specific instructions and links to additional resources, such as the "List entry requirements by Countries" and "ETA Overview," which align with Abi's comprehensive information processing style. This clear and organized presentation of information will help Abi know that she is making progress toward her goal and provide her with the necessary details to proceed with her visa application.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's motivation to find detailed visa information and her comprehensive information processing style, she will recognize that clicking on "Visa Overview" is the appropriate next step to obtain more detailed information about the visa requirements. The link is clearly labeled and directly relevant to her needs, making it clear what she should do next.</t>
+Why: Abi is motivated to find detailed visa information, and the "Visa Overview" link is clearly labeled and positioned under the "Visas and Travel Authorizations" section. This makes it evident that clicking on "Visa Overview" will provide more comprehensive information about the visa process. The clear labeling and logical placement of the link align with Abi's comprehensive information processing style, making it easy for her to understand that this is the next step to take in order to gather all necessary visa information.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" contains a large amount of detailed information, which might be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through all the information to find what is relevant to her specific situation. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the necessary information. The sheer volume of text and the need to scroll extensively could hinder her confidence in making progress toward her goal.</t>
+Why: The page Abi lands on after clicking "Visa Overview" contains a large amount of detailed information, which could be overwhelming. Abi's comprehensive information processing style means she prefers clear, organized, and easily digestible information. The dense and extensive text on this page may make it difficult for her to quickly find the specific information she needs. Additionally, Abi's low computer self-efficacy might make her feel uncertain about whether she has found the right information or if she is making progress toward her goal, especially if the information is not clearly highlighted or easy to navigate.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO4.xlsx
+++ b/outputs/POMPANO4.xlsx
@@ -424,63 +424,63 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Answer: YES 
+Facets: 1. Motivations
+Why: ABI is looking for information in ICSE conference website, and visa information is an important aspect of planning the trip to ICSE. ABI is motivated to accomplish this subgoal to move further.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy
+Why: ABI is not familiar with the conference website. ABI will be confused to see “ATTENDING ICSE 2019?” as the action doesn't provide enough information about where one could actually find visa information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style 
+Why: After click on “ATTENDING ICSE 2019?”, Abi lands on the next page; however, visa information is not on this page. So, ABI will not know what to do next and whether she is making progress toward her goal since she needs to learn more and gather more information about visa information</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to handle travel visa requirements as part of her preparation. The conference website is a logical place to look for visa information. Additionally, Abi's comprehensive information processing style means she would consider gathering all necessary details, including visa information, from the conference website. The "Visas and Travel" link under the "Attending" section is clearly visible, making it likely that Abi would think of this as a step toward achieving her overall goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: Abi's computer self-efficacy is low, and she may not feel confident about what the "Attending" link will lead to without additional information. The page does not provide explicit guidance or context about what clicking "Attending" will do, which could make Abi hesitant to proceed. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided here, making it less likely she will know what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+Why: ABI wants to know about the visa. Since she can see that “Visa” is one of the options on the page, she will click on it to find out more about it. She is motivated to move forward and get all the information she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option in the dropdown menu will confirm to Abi that she is making progress toward her goal. Additionally, the comprehensive list of options aligns with her information processing style, as it provides a clear and organized way to access the necessary information.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+Why: After clicking on “Visa,” Abi will see a page of the conference website with more information about visa information. Now she knows where to get more information about the Visa. She can now gather the information s/he needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations
+Why: S/he is looking for an overview of the Visa information. She needs to have a general idea of what visa information is all about, so she will want to read the Visa Overview to get the gist.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find visa information, and the dropdown menu clearly lists "Visas and Travel Authorizations" as an option. This is a straightforward and logical step for her to take in order to achieve her subgoal. The clear labeling of the menu item aligns with her comprehensive information processing style, making it easy for her to understand that clicking on "Visas and Travel Authorizations" will likely lead her to the information she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes specific instructions and links to additional resources, such as the "List entry requirements by Countries" and "ETA Overview," which align with Abi's comprehensive information processing style. This clear and organized presentation of information will help Abi know that she is making progress toward her goal and provide her with the necessary details to proceed with her visa application.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find detailed visa information, and the "Visa Overview" link is clearly labeled and positioned under the "Visas and Travel Authorizations" section. This makes it evident that clicking on "Visa Overview" will provide more comprehensive information about the visa process. The clear labeling and logical placement of the link align with Abi's comprehensive information processing style, making it easy for her to understand that this is the next step to take in order to gather all necessary visa information.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" contains a large amount of detailed information, which could be overwhelming. Abi's comprehensive information processing style means she prefers clear, organized, and easily digestible information. The dense and extensive text on this page may make it difficult for her to quickly find the specific information she needs. Additionally, Abi's low computer self-efficacy might make her feel uncertain about whether she has found the right information or if she is making progress toward her goal, especially if the information is not clearly highlighted or easy to navigate.</t>
+Why: After clicking on “Visa Overview,” Abi can gather as much information as she needs to about the Visa Overview document. So, she now knows that she is making progress because she is completing her subgoal.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO4.xlsx
+++ b/outputs/POMPANO4.xlsx
@@ -424,27 +424,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: YES 
+          <t>Answer: YES
 Facets: 1. Motivations
-Why: ABI is looking for information in ICSE conference website, and visa information is an important aspect of planning the trip to ICSE. ABI is motivated to accomplish this subgoal to move further.</t>
+Why: Abi is motivated to attend the ICSE conference, and looking for visa information is a logical step toward achieving this goal. The "Visas and Travel" link under the "Attending" section suggests that visa information might be available on the conference website, aligning with her need to understand travel requirements.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy
-Why: ABI is not familiar with the conference website. ABI will be confused to see “ATTENDING ICSE 2019?” as the action doesn't provide enough information about where one could actually find visa information.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find visa information, and the "Attending" section is logically related to conference participation details. Her comprehensive information processing style would lead her to explore this section for relevant information.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style 
-Why: After click on “ATTENDING ICSE 2019?”, Abi lands on the next page; however, visa information is not on this page. So, ABI will not know what to do next and whether she is making progress toward her goal since she needs to learn more and gather more information about visa information</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with "Visas and Travel Authorizations," which directly relates to her goal of finding visa information. This clear navigation option indicates she is making progress toward her goal, and she can proceed to gather the necessary information.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI wants to know about the visa. Since she can see that “Visa” is one of the options on the page, she will click on it to find out more about it. She is motivated to move forward and get all the information she needs.</t>
+Why: Abi is motivated to find visa information, and the "Visas and Travel Authorizations" option is clearly labeled in the dropdown menu. Her comprehensive information processing style will guide her to click on this option to access the relevant details.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on “Visa,” Abi will see a page of the conference website with more information about visa information. Now she knows where to get more information about the Visa. She can now gather the information s/he needs.</t>
+Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page with detailed information about visa requirements and the process for obtaining a visa invitation letter. This confirms she is making progress toward her goal and provides the comprehensive information she needs.</t>
         </is>
       </c>
     </row>
@@ -470,17 +470,17 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations
-Why: S/he is looking for an overview of the Visa information. She needs to have a general idea of what visa information is all about, so she will want to read the Visa Overview to get the gist.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to gather detailed visa information, and the "Visa Overview" link is clearly labeled as a source for more comprehensive details. Her information processing style will guide her to click on this link to ensure she has all necessary information.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on “Visa Overview,” Abi can gather as much information as she needs to about the Visa Overview document. So, she now knows that she is making progress because she is completing her subgoal.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to sift through and find the specific details she needs. Additionally, her low computer self-efficacy could lead to confusion or uncertainty about whether she has found all the necessary information.</t>
         </is>
       </c>
     </row>
